--- a/JUALAN BERSAMA BERKAH.xlsx
+++ b/JUALAN BERSAMA BERKAH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New folder (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A322D-1FA0-4D10-B59F-E6F2D17DAA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDDE058-151F-49C7-AA10-F61877EBDFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,10 +56,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter laporan transaksi" guid="{631E5628-0019-4685-A408-F8F3A629F163}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter Data Supply" guid="{E4C465D3-4839-4EE4-9885-9EF440720A46}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 1" guid="{060D2805-E471-4D4A-BC24-E03A5A667A8D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter Penjualan" guid="{ED245A96-4C6F-4D86-95D3-945F5CC31241}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{060D2805-E471-4D4A-BC24-E03A5A667A8D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter Data Supply" guid="{E4C465D3-4839-4EE4-9885-9EF440720A46}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter laporan transaksi" guid="{631E5628-0019-4685-A408-F8F3A629F163}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="118">
   <si>
     <t>Data Barang dan Supplier</t>
   </si>
@@ -997,7 +997,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="TAMPIL" spid="_x0000_s1256"/>
+                  <a14:cameraTool cellRange="TAMPIL" spid="_x0000_s1267"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3162,7 +3162,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil2" spid="_x0000_s1257"/>
+                  <a14:cameraTool cellRange="tampil2" spid="_x0000_s1268"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3227,7 +3227,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil3" spid="_x0000_s1258"/>
+                  <a14:cameraTool cellRange="tampil3" spid="_x0000_s1269"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3292,7 +3292,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil4" spid="_x0000_s1259"/>
+                  <a14:cameraTool cellRange="tampil4" spid="_x0000_s1270"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3357,7 +3357,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil5" spid="_x0000_s1260"/>
+                  <a14:cameraTool cellRange="tampil5" spid="_x0000_s1271"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3422,7 +3422,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil6" spid="_x0000_s1261"/>
+                  <a14:cameraTool cellRange="tampil6" spid="_x0000_s1272"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3487,7 +3487,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil7" spid="_x0000_s1262"/>
+                  <a14:cameraTool cellRange="tampil7" spid="_x0000_s1273"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3552,7 +3552,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil8" spid="_x0000_s1263"/>
+                  <a14:cameraTool cellRange="tampil8" spid="_x0000_s1274"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3617,7 +3617,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil9" spid="_x0000_s1264"/>
+                  <a14:cameraTool cellRange="tampil9" spid="_x0000_s1275"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3682,7 +3682,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil10" spid="_x0000_s1265"/>
+                  <a14:cameraTool cellRange="tampil10" spid="_x0000_s1276"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3747,7 +3747,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="tampil11" spid="_x0000_s1266"/>
+                  <a14:cameraTool cellRange="tampil11" spid="_x0000_s1277"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6826,13 +6826,13 @@
   </sheetData>
   <autoFilter ref="B3:T3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
+    <customSheetView guid="{E4C465D3-4839-4EE4-9885-9EF440720A46}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="B3:T60" xr:uid="{895B7BC7-5253-40A9-AA77-7B18E6647D7B}"/>
+    </customSheetView>
     <customSheetView guid="{060D2805-E471-4D4A-BC24-E03A5A667A8D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:T60" xr:uid="{0E690FAA-8522-48AF-9413-7BBAA46400CB}"/>
-    </customSheetView>
-    <customSheetView guid="{E4C465D3-4839-4EE4-9885-9EF440720A46}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:T60" xr:uid="{0395FDD8-F24B-4F46-BCC7-18916E18B776}"/>
+      <autoFilter ref="B3:T60" xr:uid="{8FB0D2A7-08B0-4251-9609-F7C5385583D8}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -8431,7 +8431,7 @@
   <dimension ref="B2:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8559,18 +8559,20 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="52" t="str">
+      <c r="B5" s="52">
         <f t="shared" ref="B5:B50" ca="1" si="4">IF(D5="","",TODAY())</f>
-        <v/>
-      </c>
-      <c r="C5" s="33" t="str">
+        <v>44638</v>
+      </c>
+      <c r="C5" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D5" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="33" t="str">
         <f>IFERROR(VLOOKUP(D5,'Data Supply'!$I$4:$J$60,2,0),"")</f>
-        <v/>
+        <v>Nur2</v>
       </c>
       <c r="F5" s="31">
         <v>3</v>
@@ -8601,26 +8603,28 @@
       </c>
       <c r="P5" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="38">
         <f>'Data Supply'!$K$4:$K$60-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="52">
+        <f t="shared" ca="1" si="4"/>
+        <v>44638</v>
+      </c>
+      <c r="C6" s="33">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="C6" s="33" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="33" t="str">
         <f>IFERROR(VLOOKUP(D6,'Data Supply'!$I$4:$J$60,2,0),"")</f>
-        <v/>
+        <v>Nur5</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="33" t="str">
@@ -10724,7 +10728,7 @@
   <customSheetViews>
     <customSheetView guid="{ED245A96-4C6F-4D86-95D3-945F5CC31241}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:J3" xr:uid="{1FE65569-523B-417F-86F6-65F8E1FE693E}"/>
+      <autoFilter ref="B3:J3" xr:uid="{0F4E3E51-D1F3-497C-890F-C577DF68C528}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -30583,21 +30587,21 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="str">
+      <c r="B5" s="53">
         <f ca="1">'Input Penjualan'!B5</f>
-        <v/>
-      </c>
-      <c r="C5" s="43" t="str">
+        <v>44638</v>
+      </c>
+      <c r="C5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D5" s="43" t="str">
         <f>IF('Input Penjualan'!D5="","",'Input Penjualan'!D5)</f>
-        <v/>
+        <v>Bordir Alisha</v>
       </c>
       <c r="E5" s="43" t="str">
         <f>'Input Penjualan'!E5</f>
-        <v/>
+        <v>Nur2</v>
       </c>
       <c r="F5" s="43">
         <f>IF('Input Penjualan'!F5="","",'Input Penjualan'!F5)</f>
@@ -30615,31 +30619,31 @@
         <f>'Input Penjualan'!N5</f>
         <v>Bordir Alisha</v>
       </c>
-      <c r="K5" s="54" t="str">
+      <c r="K5" s="54">
         <f>IF('Input Penjualan'!P5=0,"-",'Input Penjualan'!P5)</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="54" t="str">
+        <f>IF('Input Penjualan'!Q5=0,"-",'Input Penjualan'!Q5)</f>
         <v>-</v>
       </c>
-      <c r="L5" s="54">
-        <f>IF('Input Penjualan'!Q5=0,"-",'Input Penjualan'!Q5)</f>
+    </row>
+    <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="53">
+        <f ca="1">'Input Penjualan'!B6</f>
+        <v>44638</v>
+      </c>
+      <c r="C6" s="43">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="53" t="str">
-        <f ca="1">'Input Penjualan'!B6</f>
-        <v/>
-      </c>
-      <c r="C6" s="43" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
       </c>
       <c r="D6" s="43" t="str">
         <f>IF('Input Penjualan'!D6="","",'Input Penjualan'!D6)</f>
-        <v/>
+        <v>Abb Motif</v>
       </c>
       <c r="E6" s="43" t="str">
         <f>'Input Penjualan'!E6</f>
-        <v/>
+        <v>Nur5</v>
       </c>
       <c r="F6" s="43" t="str">
         <f>IF('Input Penjualan'!F6="","",'Input Penjualan'!F6)</f>
@@ -32957,7 +32961,7 @@
   <customSheetViews>
     <customSheetView guid="{631E5628-0019-4685-A408-F8F3A629F163}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G3" xr:uid="{8F0439A8-C34C-495E-A952-D6692672D411}"/>
+      <autoFilter ref="B3:G3" xr:uid="{01B28109-6979-483A-98E5-E36AB8B551E2}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
